--- a/resources/EarningList.xlsx
+++ b/resources/EarningList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saima/Desktop/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -69,6 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -434,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8378D31-A1A9-AD4E-ABBA-2A5F842F6AB4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -443,67 +444,88 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>512</v>
       </c>
+      <c r="C2" t="n" s="0">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>205</v>
       </c>
+      <c r="C3" t="n" s="0">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>635</v>
       </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>344</v>
       </c>
+      <c r="C5" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>489</v>
       </c>
+      <c r="C6" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>0</v>
       </c>
+      <c r="C7" t="n" s="0">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
